--- a/dados_produtos.xlsx
+++ b/dados_produtos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
           <t>Valor do Produto</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ICMS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/dados_produtos.xlsx
+++ b/dados_produtos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4619,7 +4619,6 @@
           <t>42022220</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>1001061</t>
@@ -5818,6 +5817,618 @@
         </is>
       </c>
       <c r="T53" t="inlineStr">
+        <is>
+          <t>7.6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2244570</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7896986288555</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>21050010</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2300100</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1003324</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>SORVETE LANUT COB PISTACHE FV 70GX12UN</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>80.2500000000</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>240.75</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>F3341V4341</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>7.0000</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>3.2500</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>1.6500</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>7.6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2244570</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>7896986288524</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>21050010</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2300100</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1003322</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>SORV LACREME MEZZO COBERTO FV 70GX12UN</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>56.0600000000</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>112.12</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>F3349V4349</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>7.0000</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>3.2500</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>1.6500</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>7.6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2244570</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7896986288500</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>21050010</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2300100</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1003321</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SORVETE LACREME KIDS FV 40GX16UN</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>53.2300000000</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>159.69</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>F3342V4342</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>7.0000</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>3.2500</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>1.6500</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>7.6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2244570</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7896986258077</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>21050010</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2300100</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1002457</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SORVETE LACREME COBERTO ZERO 70GX12UN</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>64.1200000000</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>64.12</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>F3269V4269</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>7.0000</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>3.2500</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>1.6500</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>7.6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2244570</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>7896986288470</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>21050010</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2300100</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1003319</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SORVETE LACREME COBERTO FV 70GX12UN</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>56.0600000000</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>168.18</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>F3347V4347</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>7.0000</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>3.2500</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>1.6500</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>7.6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2244570</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>7896986288456</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>21050010</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2300100</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1003317</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>SORV DREAMS TORTA MORANGO FV 70GX12UN</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>56.0600000000</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>112.12</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>F3350V4350</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>7.0000</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>3.2500</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>1.6500</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
         <is>
           <t>7.6000</t>
         </is>
